--- a/tests/inputfiles/UX_3D.xlsx
+++ b/tests/inputfiles/UX_3D.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC283403-80CF-411D-8072-D460A9A54070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A672EC6-5AAA-4444-8B38-2E6187E86395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>Displ_x</t>
-  </si>
-  <si>
     <t>x0</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Fz</t>
+  </si>
+  <si>
+    <t>move-x</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -686,7 +686,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -741,7 +741,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -759,16 +759,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -778,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5">
         <v>5000</v>
@@ -830,10 +830,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="6"/>
       <c r="I1" s="6"/>
@@ -880,7 +880,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -917,7 +917,7 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3">
@@ -931,7 +931,7 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="5">
@@ -945,7 +945,7 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="5">
@@ -959,7 +959,7 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="5">
@@ -973,7 +973,7 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="5">
@@ -987,7 +987,7 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="5">
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1042,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2167F238-2B38-4FEC-B803-2359656D4903}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1233,16 +1233,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="12">
         <v>0.01</v>

--- a/tests/inputfiles/UX_3D.xlsx
+++ b/tests/inputfiles/UX_3D.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A672EC6-5AAA-4444-8B38-2E6187E86395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34FEAC0-0780-4055-BCB9-F923AA78045B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>x</t>
   </si>
@@ -89,9 +89,6 @@
     <t>f0</t>
   </si>
   <si>
-    <t>multi-k</t>
-  </si>
-  <si>
     <t>Tolerance</t>
   </si>
   <si>
@@ -110,15 +107,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>mu</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
@@ -132,6 +120,15 @@
   </si>
   <si>
     <t>move-x</t>
+  </si>
+  <si>
+    <t>hyp-iso-str-k</t>
+  </si>
+  <si>
+    <t>hyp-iso-inv</t>
+  </si>
+  <si>
+    <t>Rubber-Cij</t>
   </si>
 </sst>
 </file>
@@ -199,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +226,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -686,7 +686,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -759,16 +759,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D1" s="10">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11">
+        <v>3</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -778,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5">
         <v>5000</v>
@@ -796,7 +796,30 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E3" s="1"/>
+      <c r="A3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E4" s="1"/>
@@ -896,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1042,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1064,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -1078,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -1120,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
@@ -1134,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -1201,7 +1224,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5">
         <v>0.2</v>
@@ -1222,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2167F238-2B38-4FEC-B803-2359656D4903}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1233,16 +1256,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1250,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12">
         <v>0.01</v>
